--- a/Report of Foresty_20211124/調查疏失名單.xlsx
+++ b/Report of Foresty_20211124/調查疏失名單.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20211124\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wetin\Desktop\R\Macaca-population-trend\Report of Foresty_20211124\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423C1C8E-1A1F-493E-921C-268C79185B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="437">
   <si>
     <t>林管處</t>
   </si>
@@ -1330,12 +1331,16 @@
   </si>
   <si>
     <t>錦屏林道</t>
+  </si>
+  <si>
+    <t>原荖腦山東南方</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1484,6 +1489,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1519,6 +1541,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1694,14 +1733,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -4395,6 +4434,9 @@
       <c r="D117" s="3" t="s">
         <v>389</v>
       </c>
+      <c r="E117" s="3" t="s">
+        <v>436</v>
+      </c>
       <c r="F117" s="3" t="s">
         <v>32</v>
       </c>

--- a/Report of Foresty_20211124/調查疏失名單.xlsx
+++ b/Report of Foresty_20211124/調查疏失名單.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wetin\Desktop\R\Macaca-population-trend\Report of Foresty_20211124\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\test\Macaca-population-trend\Report of Foresty_20211124\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423C1C8E-1A1F-493E-921C-268C79185B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1334,23 +1333,15 @@
   </si>
   <si>
     <t>原荖腦山東南方</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -1361,6 +1352,31 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -1385,17 +1401,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1489,23 +1506,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1541,23 +1541,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1733,17 +1716,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="28" style="3" bestFit="1" customWidth="1"/>
@@ -1751,28 +1734,29 @@
     <col min="5" max="5" width="27.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.75" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="3"/>
+    <col min="8" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4790,9 +4774,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>